--- a/biology/Histoire de la zoologie et de la botanique/Muséum/Muséum.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Muséum/Muséum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um</t>
+          <t>Muséum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um</t>
+          <t>Muséum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
           <t>Muséum (avec accent)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le mot muséum est la francisation du mot latin museum. Il est utilisé surtout depuis la fin du XVIIIe siècle en français pour désigner officiellement d'abord l'établissement qui, historiquement, a été le premier musée national de la France à être spécialisé en histoire naturelle, et ensuite d'autres musées d'histoire naturelle de France et d'autres pays francophones[note 1]. Ainsi :
 « Muséum » est un mot pouvant se référer :
 au Muséum national d'histoire naturelle (MNHN), le musée national d'histoire naturelle français, situé à Paris,
 selon le contexte, à tout autre muséum (musée d'histoire naturelle) qu'il soit de rang national ou pas (voir la liste de musées d'histoire naturelle) ;
-et aussi à l'Agence France-Muséums (AFM), ou « Agence internationale des musées de France » présidée par Marc Ladreit de Lacharrière[3] ;
+et aussi à l'Agence France-Muséums (AFM), ou « Agence internationale des musées de France » présidée par Marc Ladreit de Lacharrière ;
 Muséum est un roman de Véronique Roy, archiviste au Muséum national d'histoire naturelle, à Paris.</t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um</t>
+          <t>Muséum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Museum (sans accent)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En latin, Museum (en italiques) est le nom donné à la bibliothèque et à l'établissement nommé en grec Mouseîon, dans la ville antique d'Alexandrie ;
 Un museum, dans certaines langues modernes autres que le français, est un musée. Dans ces langues le mot provient, tout comme les mots français « musée » et « muséum », d'une généralisation au cours du XVIIIe siècle du nom latin de l'établissement alexandrin nommé Museum (ou Mouseîon si transcrit du grec). Les langues anglaise ou allemande, par exemple, utilisent toujours ce mot en ce sens et sans modification, comme dans le Peabody Essex Museum de Salem ou le Pergamonmuseum de Berlin ;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9um</t>
+          <t>Muséum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +600,12 @@
           <t>Note étymologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-↑ Le mot « muséum » avec un accent désigne, dans les pays francophones, 25 musées de sciences naturelles (soit la plupart d'entre eux, dont 23 en France et 2 en Suisse romande). Ce terme apparaît en français pendant la Révolution française, en référence au Mouseîon d'Alexandrie, lorsque sont institués en 1791 le « Muséum central des Arts de la République » par le décret de l'Assemblée nationale du 26 mai 1791[1] et en 1793 le « Muséum national d'histoire naturelle » par le décret de la Convention du 10 juin 1793[2]. Par la suite « Muséum » (à la place de « Musée ») n'est conservé que pour le second établissement, à partir duquel il diffuse sous la dénomination de « Muséum d'histoire naturelle » en France et en Suisse romande. En conséquence, l'expression « Muséum d'histoire naturelle » a été un pléonasme en français puisque le terme « Muséum » ne s'appliquait, jusqu'au décret no 2008-387 du 23 avril 2008 « Agence France-Muséums », qu'à des musées d'histoire naturelle, et c'est pourquoi quatre d'entre eux (Besançon, Cherbourg, Toulon et Toulouse) s'intitulent plus simplement « Muséum ». Dans les autres langues, il n'y a pas de terme réservé à des musées d'histoire naturelle : le même mot désigne tous les musées (le plus souvent sous la forme museum sans accent, ou bien museo, müze, museu, muzej, múzeum, музей…).
+↑ Le mot « muséum » avec un accent désigne, dans les pays francophones, 25 musées de sciences naturelles (soit la plupart d'entre eux, dont 23 en France et 2 en Suisse romande). Ce terme apparaît en français pendant la Révolution française, en référence au Mouseîon d'Alexandrie, lorsque sont institués en 1791 le « Muséum central des Arts de la République » par le décret de l'Assemblée nationale du 26 mai 1791 et en 1793 le « Muséum national d'histoire naturelle » par le décret de la Convention du 10 juin 1793. Par la suite « Muséum » (à la place de « Musée ») n'est conservé que pour le second établissement, à partir duquel il diffuse sous la dénomination de « Muséum d'histoire naturelle » en France et en Suisse romande. En conséquence, l'expression « Muséum d'histoire naturelle » a été un pléonasme en français puisque le terme « Muséum » ne s'appliquait, jusqu'au décret no 2008-387 du 23 avril 2008 « Agence France-Muséums », qu'à des musées d'histoire naturelle, et c'est pourquoi quatre d'entre eux (Besançon, Cherbourg, Toulon et Toulouse) s'intitulent plus simplement « Muséum ». Dans les autres langues, il n'y a pas de terme réservé à des musées d'histoire naturelle : le même mot désigne tous les musées (le plus souvent sous la forme museum sans accent, ou bien museo, müze, museu, muzej, múzeum, музей…).
 </t>
         </is>
       </c>
